--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H2">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J2">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N2">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P2">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q2">
-        <v>985.2454348004544</v>
+        <v>1492.227315811244</v>
       </c>
       <c r="R2">
-        <v>985.2454348004544</v>
+        <v>13430.0458423012</v>
       </c>
       <c r="S2">
-        <v>0.2638198971932805</v>
+        <v>0.3243317819967168</v>
       </c>
       <c r="T2">
-        <v>0.2638198971932805</v>
+        <v>0.3243317819967167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H3">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J3">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P3">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q3">
-        <v>147.4653045931853</v>
+        <v>222.4196084741315</v>
       </c>
       <c r="R3">
-        <v>147.4653045931853</v>
+        <v>2001.776476267184</v>
       </c>
       <c r="S3">
-        <v>0.03948689344115496</v>
+        <v>0.04834233176344831</v>
       </c>
       <c r="T3">
-        <v>0.03948689344115496</v>
+        <v>0.04834233176344829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.3507905520441</v>
+        <v>32.47042033333333</v>
       </c>
       <c r="H4">
-        <v>22.3507905520441</v>
+        <v>97.411261</v>
       </c>
       <c r="I4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207956</v>
       </c>
       <c r="J4">
-        <v>0.4314579212493865</v>
+        <v>0.5240295449207955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P4">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q4">
-        <v>478.5852687615754</v>
+        <v>696.3755059211792</v>
       </c>
       <c r="R4">
-        <v>478.5852687615754</v>
+        <v>6267.379553290613</v>
       </c>
       <c r="S4">
-        <v>0.1281511306149511</v>
+        <v>0.1513554311606305</v>
       </c>
       <c r="T4">
-        <v>0.1281511306149511</v>
+        <v>0.1513554311606305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H5">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J5">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N5">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P5">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q5">
-        <v>987.804081770313</v>
+        <v>1031.168117566437</v>
       </c>
       <c r="R5">
-        <v>987.804081770313</v>
+        <v>9280.513058097929</v>
       </c>
       <c r="S5">
-        <v>0.2645050279806956</v>
+        <v>0.2241217471124397</v>
       </c>
       <c r="T5">
-        <v>0.2645050279806956</v>
+        <v>0.2241217471124396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H6">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J6">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P6">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q6">
-        <v>147.8482666871259</v>
+        <v>153.6977687983467</v>
       </c>
       <c r="R6">
-        <v>147.8482666871259</v>
+        <v>1383.27991918512</v>
       </c>
       <c r="S6">
-        <v>0.03958943948367766</v>
+        <v>0.03340581606776637</v>
       </c>
       <c r="T6">
-        <v>0.03958943948367766</v>
+        <v>0.03340581606776635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.4088347514892</v>
+        <v>22.43791</v>
       </c>
       <c r="H7">
-        <v>22.4088347514892</v>
+        <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.4325784019578811</v>
+        <v>0.3621181261458191</v>
       </c>
       <c r="J7">
-        <v>0.4325784019578811</v>
+        <v>0.362118126145819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P7">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q7">
-        <v>479.828137497104</v>
+        <v>481.2136944227799</v>
       </c>
       <c r="R7">
-        <v>479.828137497104</v>
+        <v>4330.923249805019</v>
       </c>
       <c r="S7">
-        <v>0.1284839344935078</v>
+        <v>0.1045905629656131</v>
       </c>
       <c r="T7">
-        <v>0.1284839344935078</v>
+        <v>0.104590562965613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H8">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J8">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.0810105801984</v>
+        <v>45.95651366666667</v>
       </c>
       <c r="N8">
-        <v>44.0810105801984</v>
+        <v>137.869541</v>
       </c>
       <c r="O8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="P8">
-        <v>0.6114614756158114</v>
+        <v>0.6189188856627118</v>
       </c>
       <c r="Q8">
-        <v>310.4766079408597</v>
+        <v>324.2060621387357</v>
       </c>
       <c r="R8">
-        <v>310.4766079408597</v>
+        <v>2917.854559248621</v>
       </c>
       <c r="S8">
-        <v>0.08313655044183541</v>
+        <v>0.07046535655355551</v>
       </c>
       <c r="T8">
-        <v>0.08313655044183541</v>
+        <v>0.0704653565535555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H9">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J9">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.59776683289168</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
-        <v>6.59776683289168</v>
+        <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993263</v>
       </c>
       <c r="P9">
-        <v>0.0915196859216572</v>
+        <v>0.09225115688993261</v>
       </c>
       <c r="Q9">
-        <v>46.47017478272382</v>
+        <v>48.32359295516267</v>
       </c>
       <c r="R9">
-        <v>46.47017478272382</v>
+        <v>434.912336596464</v>
       </c>
       <c r="S9">
-        <v>0.01244335299682458</v>
+        <v>0.01050300905871797</v>
       </c>
       <c r="T9">
-        <v>0.01244335299682458</v>
+        <v>0.01050300905871796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.04331874098024</v>
+        <v>7.054627</v>
       </c>
       <c r="H10">
-        <v>7.04331874098024</v>
+        <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333856</v>
       </c>
       <c r="J10">
-        <v>0.1359636767927324</v>
+        <v>0.1138523289333855</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4124537406041</v>
+        <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>21.4124537406041</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="P10">
-        <v>0.2970188384625314</v>
+        <v>0.2888299574473556</v>
       </c>
       <c r="Q10">
-        <v>150.8147367215693</v>
+        <v>151.296761661166</v>
       </c>
       <c r="R10">
-        <v>150.8147367215693</v>
+        <v>1361.670854950494</v>
       </c>
       <c r="S10">
-        <v>0.0403837733540724</v>
+        <v>0.03288396332111208</v>
       </c>
       <c r="T10">
-        <v>0.0403837733540724</v>
+        <v>0.03288396332111208</v>
       </c>
     </row>
   </sheetData>
